--- a/excel files/school_lop.xlsx
+++ b/excel files/school_lop.xlsx
@@ -39,35 +39,35 @@
     <t>ma_gv_id</t>
   </si>
   <si>
-    <t>Lá»›p 6/3</t>
-  </si>
-  <si>
-    <t>Lá»›p 6/4</t>
-  </si>
-  <si>
-    <t>Lá»›p 7/3</t>
-  </si>
-  <si>
-    <t>Lá»›p 7/4</t>
-  </si>
-  <si>
-    <t>Lá»›p 8/3</t>
-  </si>
-  <si>
-    <t>Lá»›p 8/4</t>
-  </si>
-  <si>
-    <t>Lá»›p 9/3</t>
-  </si>
-  <si>
-    <t>Lá»›p 9/4</t>
+    <t>Lớp 6/3</t>
+  </si>
+  <si>
+    <t>Lớp 6/4</t>
+  </si>
+  <si>
+    <t>Lớp 7/3</t>
+  </si>
+  <si>
+    <t>Lớp 7/4</t>
+  </si>
+  <si>
+    <t>Lớp 8/3</t>
+  </si>
+  <si>
+    <t>Lớp 8/4</t>
+  </si>
+  <si>
+    <t>Lớp 9/3</t>
+  </si>
+  <si>
+    <t>Lớp 9/4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,8 +202,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +388,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -499,6 +510,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -544,8 +570,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -869,7 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -900,7 +931,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2">
@@ -920,7 +951,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3">
@@ -940,7 +971,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4">
@@ -960,7 +991,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5">
@@ -980,7 +1011,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6">
@@ -1000,7 +1031,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D7">
@@ -1020,7 +1051,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8">
@@ -1040,7 +1071,7 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9">
@@ -1055,5 +1086,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel files/school_lop.xlsx
+++ b/excel files/school_lop.xlsx
@@ -899,7 +899,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
